--- a/tut05/output/0401CS23.xlsx
+++ b/tut05/output/0401CS23.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.204081632653061</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>8.636363636363637</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>8.093023255813954</v>
+        <v>8.09</v>
       </c>
       <c r="E6" t="n">
-        <v>8.148936170212766</v>
+        <v>8.15</v>
       </c>
       <c r="F6" t="n">
-        <v>8.785714285714286</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="G6" t="n">
         <v>8.85</v>
       </c>
       <c r="H6" t="n">
-        <v>9.292682926829269</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>9.4</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.204081632653061</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>8.935483870967742</v>
+        <v>8.94</v>
       </c>
       <c r="D8" t="n">
-        <v>8.669117647058824</v>
+        <v>8.67</v>
       </c>
       <c r="E8" t="n">
-        <v>8.535519125683059</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>8.582222222222223</v>
+        <v>8.58</v>
       </c>
       <c r="G8" t="n">
-        <v>8.622641509433961</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>8.712418300653594</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>8.791907514450868</v>
+        <v>8.789999999999999</v>
       </c>
     </row>
   </sheetData>
